--- a/Planning_epo_4_B6.xlsx
+++ b/Planning_epo_4_B6.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martijn\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="13872"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
   <si>
     <t>Introductie</t>
   </si>
@@ -204,13 +199,16 @@
   </si>
   <si>
     <t>Chapter 4 manual</t>
+  </si>
+  <si>
+    <t>✓</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +248,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,7 +383,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
@@ -389,15 +394,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="5" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
+    <cellStyle name="Controlecel" xfId="3" builtinId="23"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Notitie" xfId="5" builtinId="10"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Waarschuwingstekst" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,7 +675,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -677,22 +685,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" customWidth="1"/>
-    <col min="12" max="12" width="32.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" customWidth="1"/>
+    <col min="12" max="12" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -721,7 +729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +746,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>18</v>
@@ -747,9 +755,13 @@
       <c r="E3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="6"/>
@@ -759,7 +771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>19</v>
@@ -839,16 +851,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -856,13 +870,13 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="3"/>
@@ -877,18 +891,20 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="11" t="s">
         <v>53</v>
       </c>
       <c r="I10" s="6"/>
@@ -898,13 +914,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="3"/>
@@ -919,13 +935,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="3"/>
@@ -1095,7 +1111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8" t="s">
@@ -1106,23 +1122,23 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="3"/>
@@ -1135,13 +1151,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="3"/>
@@ -1156,18 +1172,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="11" t="s">
         <v>39</v>
       </c>
       <c r="I23" s="6"/>
@@ -1177,18 +1193,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I24" s="6"/>
@@ -1198,18 +1214,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="11" t="s">
         <v>46</v>
       </c>
       <c r="I25" s="6"/>
@@ -1238,7 +1254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8" t="s">
@@ -1249,7 +1265,7 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="11" t="s">
         <v>41</v>
       </c>
       <c r="I27" s="6"/>
@@ -1280,7 +1296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="8" t="s">
@@ -1291,7 +1307,7 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="11" t="s">
         <v>41</v>
       </c>
       <c r="I29" s="6"/>
@@ -1301,7 +1317,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1320,7 +1336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>13</v>
@@ -1341,7 +1357,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -1352,7 +1368,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="11" t="s">
         <v>46</v>
       </c>
       <c r="I32" s="6"/>
@@ -1362,7 +1378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>14</v>
@@ -1373,7 +1389,7 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="11" t="s">
         <v>39</v>
       </c>
       <c r="I33" s="6"/>
@@ -1383,7 +1399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>15</v>
@@ -1394,7 +1410,7 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="11" t="s">
         <v>41</v>
       </c>
       <c r="I34" s="6"/>
@@ -1404,7 +1420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
@@ -1425,7 +1441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
@@ -1444,8 +1460,9 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planning_epo_4_B6.xlsx
+++ b/Planning_epo_4_B6.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martijn\Git\KITT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="13872"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="13875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
   <si>
     <t>Introductie</t>
   </si>
@@ -202,13 +207,25 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>Code(Jeroen) uitvoerende code</t>
+  </si>
+  <si>
+    <t>Specs</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>overzichtje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +276,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -294,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -373,8 +411,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -382,8 +429,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
@@ -397,15 +445,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="7"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
-    <cellStyle name="Controlecel" xfId="3" builtinId="23"/>
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Notitie" xfId="5" builtinId="10"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Waarschuwingstekst" xfId="4" builtinId="11"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Linked Cell" xfId="7" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -675,7 +727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -683,24 +735,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L37"/>
+  <dimension ref="B1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" customWidth="1"/>
-    <col min="12" max="12" width="32.5546875" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -729,13 +781,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="13" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="3"/>
@@ -746,13 +798,13 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -771,17 +823,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>38</v>
       </c>
@@ -794,16 +850,13 @@
     </row>
     <row r="5" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -812,90 +865,88 @@
     <row r="6" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
       <c r="H6" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="E8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="12" t="s">
-        <v>50</v>
+      <c r="E9" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="8"/>
       <c r="E10" s="12" t="s">
         <v>50</v>
@@ -904,20 +955,16 @@
         <v>60</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="12" t="s">
@@ -926,7 +973,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
       <c r="H11" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -935,19 +982,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="6" t="s">
-        <v>38</v>
+      <c r="H12" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -957,109 +1006,115 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="E14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="L16" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="7" t="s">
-        <v>31</v>
+      <c r="H17" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6" t="s">
         <v>58</v>
@@ -1067,21 +1122,17 @@
     </row>
     <row r="18" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6" t="s">
@@ -1092,18 +1143,20 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="6" t="s">
-        <v>40</v>
+      <c r="H19" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1111,81 +1164,87 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="11"/>
+      <c r="H20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="12" t="s">
-        <v>50</v>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="6"/>
+      <c r="H22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="11"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8"/>
       <c r="E23" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -1193,19 +1252,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="11" t="s">
-        <v>45</v>
+      <c r="H24" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -1214,11 +1273,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>50</v>
@@ -1226,7 +1285,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
       <c r="H25" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -1237,16 +1296,18 @@
     </row>
     <row r="26" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9" t="s">
-        <v>48</v>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -1254,19 +1315,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
       <c r="H27" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -1277,18 +1338,16 @@
     </row>
     <row r="28" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="13" t="s">
         <v>48</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -1296,13 +1355,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>48</v>
       </c>
       <c r="F29" s="3"/>
@@ -1317,60 +1376,60 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="30" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9" t="s">
-        <v>51</v>
+      <c r="D30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9" t="s">
-        <v>51</v>
+      <c r="C31" s="1"/>
+      <c r="D31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="6" t="s">
-        <v>40</v>
+      <c r="H31" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -1378,19 +1437,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="8"/>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="11" t="s">
-        <v>39</v>
+      <c r="H33" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -1399,19 +1458,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34" s="8"/>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="15" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
       <c r="H34" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -1420,19 +1479,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="1"/>
+    <row r="35" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="9" t="s">
-        <v>49</v>
+      <c r="E35" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="6" t="s">
-        <v>43</v>
+      <c r="H35" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -1441,26 +1500,68 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="1"/>
+    <row r="36" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D36" s="8"/>
-      <c r="E36" s="9" t="s">
-        <v>49</v>
+      <c r="E36" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="6" t="s">
-        <v>47</v>
+      <c r="H36" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="L36" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Planning_epo_4_B6.xlsx
+++ b/Planning_epo_4_B6.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martijn\Git\KITT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="13875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="13872"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="65">
   <si>
     <t>Introductie</t>
   </si>
@@ -451,13 +446,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Linked Cell" xfId="7" builtinId="24"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="5" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
+    <cellStyle name="Controlecel" xfId="3" builtinId="23"/>
+    <cellStyle name="Gekoppelde cel" xfId="7" builtinId="24"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Notitie" xfId="5" builtinId="10"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Waarschuwingstekst" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -727,7 +722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -737,22 +732,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" customWidth="1"/>
-    <col min="12" max="12" width="32.5703125" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" customWidth="1"/>
+    <col min="12" max="12" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -798,7 +793,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>18</v>
@@ -823,7 +818,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>19</v>
@@ -942,7 +937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -982,7 +977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1026,7 +1021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1064,7 +1059,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -1093,7 +1088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1139,7 +1134,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
@@ -1242,7 +1237,9 @@
       <c r="E23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1282,7 +1279,9 @@
       <c r="E25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="11" t="s">
         <v>39</v>
@@ -1303,7 +1302,9 @@
       <c r="E26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="11" t="s">
         <v>45</v>
@@ -1376,7 +1377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="8" t="s">
@@ -1397,7 +1398,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="8" t="s">
@@ -1418,7 +1419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>13</v>
@@ -1458,7 +1459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -1479,7 +1480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>14</v>
@@ -1500,7 +1501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>15</v>
@@ -1521,7 +1522,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
@@ -1561,7 +1562,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Planning_epo_4_B6.xlsx
+++ b/Planning_epo_4_B6.xlsx
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,7 +1228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -1270,7 +1270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8" t="s">
@@ -1293,7 +1293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="8" t="s">

--- a/Planning_epo_4_B6.xlsx
+++ b/Planning_epo_4_B6.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25908"/>
+  <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/KITT/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="13872"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="65">
   <si>
     <t>Introductie</t>
   </si>
@@ -367,16 +375,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,13 +454,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
-    <cellStyle name="Controlecel" xfId="3" builtinId="23"/>
-    <cellStyle name="Gekoppelde cel" xfId="7" builtinId="24"/>
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Notitie" xfId="5" builtinId="10"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Waarschuwingstekst" xfId="4" builtinId="11"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Linked Cell" xfId="7" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -722,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,25 +740,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="30.6640625" customWidth="1"/>
     <col min="11" max="11" width="26.6640625" customWidth="1"/>
-    <col min="12" max="12" width="32.5546875" customWidth="1"/>
+    <col min="12" max="12" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
@@ -776,7 +784,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +801,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>18</v>
@@ -818,7 +826,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>19</v>
@@ -827,7 +835,7 @@
       <c r="E4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -843,7 +851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
@@ -857,7 +865,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>62</v>
@@ -866,8 +874,12 @@
       <c r="E6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>64</v>
       </c>
@@ -878,7 +890,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -895,7 +907,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>21</v>
@@ -916,7 +928,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -937,7 +949,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -956,7 +968,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -977,7 +989,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -1000,7 +1012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1021,7 +1033,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1044,7 +1056,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1059,7 +1071,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -1088,7 +1100,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1115,7 +1127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -1134,7 +1146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
@@ -1159,7 +1171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8" t="s">
@@ -1182,7 +1194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="8" t="s">
@@ -1207,7 +1219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8" t="s">
@@ -1228,7 +1240,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -1249,7 +1261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="8" t="s">
@@ -1270,7 +1282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8" t="s">
@@ -1293,7 +1305,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="8" t="s">
@@ -1316,7 +1328,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8" t="s">
@@ -1337,7 +1349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1356,7 +1368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="8" t="s">
@@ -1377,7 +1389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="8" t="s">
@@ -1398,7 +1410,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="8" t="s">
@@ -1419,7 +1431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1438,7 +1450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>13</v>
@@ -1459,7 +1471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -1480,7 +1492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>14</v>
@@ -1501,7 +1513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>15</v>
@@ -1522,7 +1534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
@@ -1543,7 +1555,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
@@ -1562,7 +1574,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:12" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Planning_epo_4_B6.xlsx
+++ b/Planning_epo_4_B6.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
   <si>
     <t>Introductie</t>
   </si>
@@ -741,7 +741,7 @@
   <dimension ref="B1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1021,9 @@
       <c r="E13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="6" t="s">
         <v>54</v>

--- a/Planning_epo_4_B6.xlsx
+++ b/Planning_epo_4_B6.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/KITT/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="38400" windowHeight="13872"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
   <si>
     <t>Introductie</t>
   </si>
@@ -301,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,17 +320,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -355,21 +345,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,43 +399,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="7"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="40% - Accent1" xfId="6" builtinId="31"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Linked Cell" xfId="7" builtinId="24"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="5" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
+  <cellStyles count="7">
+    <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
+    <cellStyle name="Controlecel" xfId="3" builtinId="23"/>
+    <cellStyle name="Gekoppelde cel" xfId="6" builtinId="24"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Waarschuwingstekst" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -730,7 +702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -740,25 +712,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="30.6640625" customWidth="1"/>
     <col min="11" max="11" width="26.6640625" customWidth="1"/>
-    <col min="12" max="12" width="32.5" customWidth="1"/>
+    <col min="12" max="12" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
@@ -784,94 +756,94 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -880,703 +852,727 @@
       <c r="G6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="8" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6" t="s">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6" t="s">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6" t="s">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6" t="s">
+      <c r="I22" s="10"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6" t="s">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="6" t="s">
+      <c r="F24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="11" t="s">
+      <c r="G25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6" t="s">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="11" t="s">
+      <c r="G26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="11" t="s">
+      <c r="F27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6" t="s">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="12" t="s">
         <v>48</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="11" t="s">
+      <c r="F29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6" t="s">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="6" t="s">
+      <c r="F30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6" t="s">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="11" t="s">
+      <c r="F31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6" t="s">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6" t="s">
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6" t="s">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="15" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6" t="s">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="15" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6" t="s">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="15" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6" t="s">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="14" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6" t="s">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="14" t="s">
+      <c r="D38" s="7"/>
+      <c r="E38" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-    </row>
-    <row r="39" spans="2:12" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Planning_epo_4_B6.xlsx
+++ b/Planning_epo_4_B6.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25908"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/KITT/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="38400" windowHeight="13872"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
   <si>
     <t>Introductie</t>
   </si>
@@ -427,12 +432,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
-    <cellStyle name="Controlecel" xfId="3" builtinId="23"/>
-    <cellStyle name="Gekoppelde cel" xfId="6" builtinId="24"/>
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Waarschuwingstekst" xfId="4" builtinId="11"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Linked Cell" xfId="6" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,7 +707,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -712,25 +717,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="30.6640625" customWidth="1"/>
     <col min="11" max="11" width="26.6640625" customWidth="1"/>
-    <col min="12" max="12" width="32.44140625" customWidth="1"/>
+    <col min="12" max="12" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
@@ -756,7 +761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +778,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>18</v>
@@ -798,7 +803,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>19</v>
@@ -823,7 +828,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
@@ -837,7 +842,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>62</v>
@@ -862,7 +867,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -871,7 +876,9 @@
       <c r="E7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -879,7 +886,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>21</v>
@@ -900,7 +907,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -921,7 +928,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -940,7 +947,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -961,7 +968,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -984,7 +991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1007,7 +1014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1030,7 +1037,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1045,7 +1052,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -1074,7 +1081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1101,7 +1108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -1120,7 +1127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="7" t="s">
@@ -1145,7 +1152,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="7" t="s">
@@ -1154,7 +1161,9 @@
       <c r="E20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5" t="s">
         <v>37</v>
@@ -1168,7 +1177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7" t="s">
@@ -1193,7 +1202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="16.95" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="7" t="s">
@@ -1214,7 +1223,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -1235,7 +1244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="7" t="s">
@@ -1260,7 +1269,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="7" t="s">
@@ -1285,7 +1294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="7" t="s">
@@ -1310,7 +1319,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="7" t="s">
@@ -1335,7 +1344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1354,7 +1363,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="7" t="s">
@@ -1379,7 +1388,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="7" t="s">
@@ -1404,7 +1413,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="7" t="s">
@@ -1413,7 +1422,7 @@
       <c r="E31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -1429,7 +1438,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1448,7 +1457,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>13</v>
@@ -1469,7 +1478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -1490,7 +1499,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>14</v>
@@ -1511,7 +1520,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>15</v>
@@ -1532,7 +1541,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,7 +1562,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
@@ -1562,7 +1571,9 @@
       <c r="E38" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5" t="s">
         <v>47</v>
@@ -1572,7 +1583,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:12" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
